--- a/zywork-document/documents/数据库设计.xlsx
+++ b/zywork-document/documents/数据库设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325">
   <si>
     <t>角色表t_role</t>
   </si>
@@ -483,6 +483,33 @@
     <t>签约创建时间</t>
   </si>
   <si>
+    <t>酒店信息表t_hotel</t>
+  </si>
+  <si>
+    <t>酒店编号,AI</t>
+  </si>
+  <si>
+    <t>plot_id</t>
+  </si>
+  <si>
+    <t>签约地块编号，来源于t_plot表</t>
+  </si>
+  <si>
+    <t>shop_manager_id</t>
+  </si>
+  <si>
+    <t>店长编号，来源于t_user表</t>
+  </si>
+  <si>
+    <t>酒店名称</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>酒店固定电话</t>
+  </si>
+  <si>
     <t>房型表t_house</t>
   </si>
   <si>
@@ -525,13 +552,10 @@
     <t>房间描述</t>
   </si>
   <si>
-    <t>plot_id</t>
-  </si>
-  <si>
-    <t>房间所属签约地块，来源于t_plot表</t>
-  </si>
-  <si>
-    <t>shop_manager_id</t>
+    <t>hotel_id</t>
+  </si>
+  <si>
+    <t>房间所属酒店，来源于t_hotel表</t>
   </si>
   <si>
     <t>房间所属店长，来源于t_user表</t>
@@ -588,6 +612,9 @@
     <t>客户订单编号,AI</t>
   </si>
   <si>
+    <t>客户入住酒店编号，来源于t_hotel表</t>
+  </si>
+  <si>
     <t>客户订单所属店长，来源于t_user表</t>
   </si>
   <si>
@@ -753,6 +780,9 @@
     <t>增值服务所属订单，通过订单可以找到客户信息，来源于t_customer_order表</t>
   </si>
   <si>
+    <t>酒店编号，来源于t_hotel表</t>
+  </si>
+  <si>
     <t>增值服务所属房间编号，来源于t_house表</t>
   </si>
   <si>
@@ -855,9 +885,6 @@
     <t>合作商家联系人</t>
   </si>
   <si>
-    <t>tel</t>
-  </si>
-  <si>
     <t>合作商家固定电话</t>
   </si>
   <si>
@@ -946,6 +973,24 @@
   </si>
   <si>
     <t>房租缴纳周期结束时间</t>
+  </si>
+  <si>
+    <t>请假记录表t_leave</t>
+  </si>
+  <si>
+    <t>请假编号,AI</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>是否通过，0表示未通过，1表示通过</t>
+  </si>
+  <si>
+    <t>check_time</t>
+  </si>
+  <si>
+    <t>审核时间</t>
   </si>
 </sst>
 </file>
@@ -953,9 +998,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -975,14 +1020,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -992,42 +1090,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1047,54 +1109,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1110,7 +1140,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,6 +1153,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1133,13 +1178,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,19 +1190,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,7 +1220,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,7 +1238,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,25 +1274,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,19 +1310,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,19 +1322,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,37 +1358,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,13 +1372,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1362,6 +1411,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1377,32 +1450,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1415,165 +1469,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1952,7 +1997,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G256"/>
+  <dimension ref="A1:G282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -3756,7 +3801,10 @@
         <v>157</v>
       </c>
       <c r="C107" t="s">
-        <v>63</v>
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>98</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
@@ -3773,7 +3821,10 @@
         <v>159</v>
       </c>
       <c r="C108" t="s">
-        <v>127</v>
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>98</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
@@ -3787,16 +3838,16 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>33</v>
+      </c>
+      <c r="E109" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C109" t="s">
-        <v>124</v>
-      </c>
-      <c r="E109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3804,16 +3855,16 @@
         <v>5</v>
       </c>
       <c r="B110" t="s">
+        <v>162</v>
+      </c>
+      <c r="C110" t="s">
+        <v>36</v>
+      </c>
+      <c r="E110" t="s">
+        <v>19</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C110" t="s">
-        <v>124</v>
-      </c>
-      <c r="E110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3821,16 +3872,19 @@
         <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="C111" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
       </c>
+      <c r="F111" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G111" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3838,241 +3892,232 @@
         <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C112" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="E112" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113">
-        <v>8</v>
-      </c>
-      <c r="B113" t="s">
-        <v>169</v>
-      </c>
-      <c r="C113" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" t="s">
-        <v>98</v>
-      </c>
-      <c r="E113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>170</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114">
-        <v>9</v>
-      </c>
-      <c r="B114" t="s">
-        <v>171</v>
-      </c>
-      <c r="C114" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" t="s">
-        <v>98</v>
-      </c>
-      <c r="E114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>172</v>
-      </c>
+      <c r="A114" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="5"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115">
-        <v>10</v>
-      </c>
-      <c r="B115" t="s">
-        <v>173</v>
-      </c>
-      <c r="C115" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" t="s">
-        <v>98</v>
-      </c>
-      <c r="E115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>174</v>
+      <c r="A115" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B116" t="s">
-        <v>175</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C117" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G117" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="C118" t="s">
+        <v>127</v>
+      </c>
+      <c r="E118" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>170</v>
+      </c>
+      <c r="C119" t="s">
+        <v>124</v>
+      </c>
+      <c r="E119" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>172</v>
+      </c>
+      <c r="C120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E120" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>6</v>
+      </c>
+      <c r="B121" t="s">
+        <v>174</v>
+      </c>
+      <c r="C121" t="s">
         <v>26</v>
       </c>
-      <c r="E118" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="5"/>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>7</v>
+      <c r="E121" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="C123" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="D124" t="s">
+        <v>98</v>
       </c>
       <c r="E124" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="C125" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="D125" t="s">
+        <v>98</v>
       </c>
       <c r="E125" t="s">
         <v>11</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>182</v>
@@ -4080,10 +4125,10 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="C126" t="s">
         <v>26</v>
@@ -4091,230 +4136,227 @@
       <c r="E126" t="s">
         <v>11</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="G126" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>12</v>
+      </c>
+      <c r="B127" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>13</v>
+      </c>
+      <c r="B128" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="G128" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="5"/>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="6" t="s">
+    <row r="130" spans="1:7">
+      <c r="A130" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="5"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B131" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C131" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D129" s="6" t="s">
+      <c r="D131" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E129" s="6" t="s">
+      <c r="E131" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="F131" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G129" s="8" t="s">
+      <c r="G131" s="8" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130">
-        <v>1</v>
-      </c>
-      <c r="B130" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131">
-        <v>2</v>
-      </c>
-      <c r="B131" t="s">
-        <v>13</v>
-      </c>
-      <c r="C131" t="s">
-        <v>14</v>
-      </c>
-      <c r="D131" t="s">
-        <v>15</v>
-      </c>
-      <c r="E131" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B132" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="D132" t="s">
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C133" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="D133" t="s">
+        <v>15</v>
       </c>
       <c r="E133" t="s">
         <v>11</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G133" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
+        <v>3</v>
+      </c>
+      <c r="B134" t="s">
+        <v>77</v>
+      </c>
+      <c r="C134" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" t="s">
+        <v>19</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>4</v>
+      </c>
+      <c r="B135" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" t="s">
+        <v>22</v>
+      </c>
+      <c r="E135" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
         <v>5</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B136" t="s">
         <v>25</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C136" t="s">
         <v>26</v>
       </c>
-      <c r="E134" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" s="1" t="s">
+      <c r="E136" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="G136" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="5"/>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="6" t="s">
+    <row r="138" spans="1:7">
+      <c r="A138" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="5"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B139" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C139" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="D139" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E137" s="6" t="s">
+      <c r="E139" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F137" s="7" t="s">
+      <c r="F139" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G137" s="8" t="s">
+      <c r="G139" s="8" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138">
-        <v>1</v>
-      </c>
-      <c r="B138" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" t="s">
-        <v>10</v>
-      </c>
-      <c r="E138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139">
-        <v>2</v>
-      </c>
-      <c r="B139" t="s">
-        <v>171</v>
-      </c>
-      <c r="C139" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" t="s">
-        <v>98</v>
-      </c>
-      <c r="E139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B140" t="s">
-        <v>191</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
         <v>11</v>
@@ -4325,16 +4367,16 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D141" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -4345,322 +4387,323 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B142" t="s">
+        <v>77</v>
+      </c>
+      <c r="C142" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142" t="s">
+        <v>19</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C142" t="s">
-        <v>74</v>
-      </c>
-      <c r="E142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B143" t="s">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="C143" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="E143" t="s">
         <v>11</v>
       </c>
+      <c r="F143" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G143" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144">
+        <v>5</v>
+      </c>
+      <c r="B144" t="s">
+        <v>25</v>
+      </c>
+      <c r="C144" t="s">
+        <v>26</v>
+      </c>
+      <c r="E144" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="5"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G147" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="B144" t="s">
-        <v>198</v>
-      </c>
-      <c r="C144" t="s">
-        <v>36</v>
-      </c>
-      <c r="E144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145">
-        <v>8</v>
-      </c>
-      <c r="B145" t="s">
-        <v>200</v>
-      </c>
-      <c r="C145" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="146" ht="27" spans="1:7">
-      <c r="A146">
-        <v>9</v>
-      </c>
-      <c r="B146" t="s">
-        <v>202</v>
-      </c>
-      <c r="C146" t="s">
-        <v>26</v>
-      </c>
-      <c r="E146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="147" ht="27" spans="1:7">
-      <c r="A147">
-        <v>10</v>
-      </c>
-      <c r="B147" t="s">
-        <v>204</v>
-      </c>
-      <c r="C147" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" t="s">
-        <v>98</v>
-      </c>
-      <c r="E147" t="s">
-        <v>19</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B148" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>124</v>
+        <v>9</v>
+      </c>
+      <c r="D148" t="s">
+        <v>10</v>
       </c>
       <c r="E148" t="s">
         <v>11</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="C149" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="D149" t="s">
+        <v>98</v>
       </c>
       <c r="E149" t="s">
         <v>11</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B150" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="C150" t="s">
-        <v>124</v>
+        <v>9</v>
+      </c>
+      <c r="D150" t="s">
+        <v>98</v>
       </c>
       <c r="E150" t="s">
         <v>11</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B151" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C151" t="s">
-        <v>124</v>
+        <v>9</v>
+      </c>
+      <c r="D151" t="s">
+        <v>98</v>
       </c>
       <c r="E151" t="s">
         <v>11</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="C152" t="s">
-        <v>124</v>
+        <v>9</v>
+      </c>
+      <c r="D152" t="s">
+        <v>98</v>
       </c>
       <c r="E152" t="s">
         <v>11</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B153" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C153" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="E153" t="s">
         <v>11</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B154" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C154" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="E154" t="s">
         <v>11</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156">
+        <v>9</v>
+      </c>
+      <c r="B156" t="s">
+        <v>209</v>
+      </c>
+      <c r="C156" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" t="s">
+        <v>11</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="157" ht="27" spans="1:7">
+      <c r="A157">
+        <v>10</v>
+      </c>
+      <c r="B157" t="s">
+        <v>211</v>
+      </c>
+      <c r="C157" t="s">
+        <v>26</v>
+      </c>
+      <c r="E157" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="158" ht="27" spans="1:7">
+      <c r="A158">
+        <v>11</v>
+      </c>
+      <c r="B158" t="s">
+        <v>213</v>
+      </c>
+      <c r="C158" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" t="s">
+        <v>98</v>
+      </c>
+      <c r="E158" t="s">
         <v>19</v>
       </c>
-      <c r="B156" t="s">
-        <v>221</v>
-      </c>
-      <c r="C156" t="s">
-        <v>22</v>
-      </c>
-      <c r="E156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157">
-        <v>20</v>
-      </c>
-      <c r="B157" t="s">
-        <v>223</v>
-      </c>
-      <c r="C157" t="s">
-        <v>22</v>
-      </c>
-      <c r="E157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158">
-        <v>21</v>
-      </c>
-      <c r="B158" t="s">
-        <v>225</v>
-      </c>
-      <c r="C158" t="s">
-        <v>22</v>
-      </c>
-      <c r="E158" t="s">
-        <v>11</v>
-      </c>
       <c r="G158" s="2" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B159" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="C159" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="E159" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="160" ht="27" spans="1:7">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B160" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C160" t="s">
         <v>26</v>
@@ -4669,166 +4712,171 @@
         <v>11</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B161" t="s">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="C161" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="E161" t="s">
         <v>11</v>
       </c>
-      <c r="F161" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G161" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="162" ht="27" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B162" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C162" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
       </c>
-      <c r="F162" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G162" s="2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B163" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C163" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="E163" t="s">
         <v>11</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B164" t="s">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="C164" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="E164" t="s">
         <v>11</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G164" s="2" t="s">
-        <v>28</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165">
+        <v>18</v>
+      </c>
+      <c r="B165" t="s">
+        <v>226</v>
+      </c>
+      <c r="C165" t="s">
+        <v>124</v>
+      </c>
+      <c r="E165" t="s">
+        <v>11</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="5"/>
+      <c r="A166">
+        <v>19</v>
+      </c>
+      <c r="B166" t="s">
+        <v>228</v>
+      </c>
+      <c r="C166" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" t="s">
+        <v>98</v>
+      </c>
+      <c r="E166" t="s">
+        <v>11</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G167" s="8" t="s">
-        <v>7</v>
+      <c r="A167">
+        <v>20</v>
+      </c>
+      <c r="B167" t="s">
+        <v>230</v>
+      </c>
+      <c r="C167" t="s">
+        <v>22</v>
+      </c>
+      <c r="E167" t="s">
+        <v>11</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>232</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E168" t="s">
         <v>11</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="C169" t="s">
-        <v>14</v>
-      </c>
-      <c r="D169" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B170" t="s">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="C170" t="s">
         <v>18</v>
@@ -4837,195 +4885,192 @@
         <v>19</v>
       </c>
       <c r="G170" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="171" ht="27" spans="1:7">
+      <c r="A171">
+        <v>24</v>
+      </c>
+      <c r="B171" t="s">
+        <v>238</v>
+      </c>
+      <c r="C171" t="s">
+        <v>26</v>
+      </c>
+      <c r="E171" t="s">
+        <v>11</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171">
-        <v>4</v>
-      </c>
-      <c r="B171" t="s">
-        <v>21</v>
-      </c>
-      <c r="C171" t="s">
-        <v>22</v>
-      </c>
-      <c r="E171" t="s">
-        <v>11</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172">
+        <v>25</v>
+      </c>
+      <c r="B172" t="s">
+        <v>21</v>
+      </c>
+      <c r="C172" t="s">
+        <v>22</v>
+      </c>
+      <c r="E172" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="173" ht="27" spans="1:7">
+      <c r="A173">
+        <v>26</v>
+      </c>
+      <c r="B173" t="s">
+        <v>241</v>
+      </c>
+      <c r="C173" t="s">
+        <v>26</v>
+      </c>
+      <c r="E173" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174">
+        <v>27</v>
+      </c>
+      <c r="B174" t="s">
+        <v>243</v>
+      </c>
+      <c r="C174" t="s">
+        <v>18</v>
+      </c>
+      <c r="E174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175">
+        <v>28</v>
+      </c>
+      <c r="B175" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175" t="s">
+        <v>26</v>
+      </c>
+      <c r="E175" t="s">
+        <v>11</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="5"/>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E178" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B172" t="s">
-        <v>25</v>
-      </c>
-      <c r="C172" t="s">
-        <v>26</v>
-      </c>
-      <c r="E172" t="s">
-        <v>11</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="5"/>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E175" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F175" s="7" t="s">
+      <c r="F178" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G175" s="8" t="s">
+      <c r="G178" s="8" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176">
-        <v>1</v>
-      </c>
-      <c r="B176" t="s">
-        <v>8</v>
-      </c>
-      <c r="C176" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" t="s">
-        <v>10</v>
-      </c>
-      <c r="E176" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="177" ht="27" spans="1:7">
-      <c r="A177">
-        <v>2</v>
-      </c>
-      <c r="B177" t="s">
-        <v>243</v>
-      </c>
-      <c r="C177" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" t="s">
-        <v>98</v>
-      </c>
-      <c r="E177" t="s">
-        <v>11</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178">
-        <v>3</v>
-      </c>
-      <c r="B178" t="s">
-        <v>191</v>
-      </c>
-      <c r="C178" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" t="s">
-        <v>98</v>
-      </c>
-      <c r="E178" t="s">
-        <v>19</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179" t="s">
+        <v>11</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="C179" t="s">
-        <v>63</v>
-      </c>
-      <c r="E179" t="s">
-        <v>11</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B180" t="s">
-        <v>248</v>
+        <v>13</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D180" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E180" t="s">
         <v>11</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B181" t="s">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="C181" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5033,7 +5078,7 @@
         <v>4</v>
       </c>
       <c r="B182" t="s">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="C182" t="s">
         <v>22</v>
@@ -5041,241 +5086,241 @@
       <c r="E182" t="s">
         <v>11</v>
       </c>
+      <c r="F182" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G182" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183">
+        <v>5</v>
+      </c>
+      <c r="B183" t="s">
+        <v>25</v>
+      </c>
+      <c r="C183" t="s">
+        <v>26</v>
+      </c>
+      <c r="E183" t="s">
+        <v>11</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="5"/>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F186" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G186" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="B183" t="s">
-        <v>215</v>
-      </c>
-      <c r="C183" t="s">
-        <v>124</v>
-      </c>
-      <c r="E183" t="s">
-        <v>11</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184">
-        <v>8</v>
-      </c>
-      <c r="B184" t="s">
-        <v>255</v>
-      </c>
-      <c r="C184" t="s">
-        <v>26</v>
-      </c>
-      <c r="E184" t="s">
-        <v>11</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185">
-        <v>9</v>
-      </c>
-      <c r="B185" t="s">
-        <v>21</v>
-      </c>
-      <c r="C185" t="s">
-        <v>22</v>
-      </c>
-      <c r="E185" t="s">
-        <v>11</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="186" ht="27" spans="1:7">
-      <c r="A186">
-        <v>10</v>
-      </c>
-      <c r="B186" t="s">
-        <v>232</v>
-      </c>
-      <c r="C186" t="s">
-        <v>26</v>
-      </c>
-      <c r="E186" t="s">
-        <v>11</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B187" t="s">
-        <v>234</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="D187" t="s">
+        <v>10</v>
       </c>
       <c r="E187" t="s">
         <v>11</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="188" ht="27" spans="1:7">
       <c r="A188">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B188" t="s">
-        <v>25</v>
+        <v>252</v>
       </c>
       <c r="C188" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="D188" t="s">
+        <v>98</v>
       </c>
       <c r="E188" t="s">
         <v>11</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G188" s="2" t="s">
-        <v>28</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189">
+        <v>3</v>
+      </c>
+      <c r="B189" t="s">
+        <v>178</v>
+      </c>
+      <c r="C189" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" t="s">
+        <v>98</v>
+      </c>
+      <c r="E189" t="s">
+        <v>11</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="3" t="s">
+      <c r="A190">
+        <v>4</v>
+      </c>
+      <c r="B190" t="s">
+        <v>200</v>
+      </c>
+      <c r="C190" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" t="s">
+        <v>98</v>
+      </c>
+      <c r="E190" t="s">
+        <v>19</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191">
+        <v>5</v>
+      </c>
+      <c r="B191" t="s">
+        <v>256</v>
+      </c>
+      <c r="C191" t="s">
+        <v>63</v>
+      </c>
+      <c r="E191" t="s">
+        <v>11</v>
+      </c>
+      <c r="G191" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="4"/>
-      <c r="G190" s="5"/>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E191" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F191" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G191" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>258</v>
       </c>
       <c r="C192" t="s">
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E192" t="s">
         <v>11</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>260</v>
       </c>
       <c r="C193" t="s">
-        <v>14</v>
-      </c>
-      <c r="D193" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E193" t="s">
         <v>11</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B194" t="s">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="C194" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E194" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B195" t="s">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="C195" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="E195" t="s">
         <v>11</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G195" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B196" t="s">
-        <v>25</v>
+        <v>265</v>
       </c>
       <c r="C196" t="s">
         <v>26</v>
@@ -5287,157 +5332,163 @@
         <v>27</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="4"/>
-      <c r="G198" s="5"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197">
+        <v>11</v>
+      </c>
+      <c r="B197" t="s">
+        <v>21</v>
+      </c>
+      <c r="C197" t="s">
+        <v>22</v>
+      </c>
+      <c r="E197" t="s">
+        <v>11</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="198" ht="27" spans="1:7">
+      <c r="A198">
+        <v>12</v>
+      </c>
+      <c r="B198" t="s">
+        <v>241</v>
+      </c>
+      <c r="C198" t="s">
+        <v>26</v>
+      </c>
+      <c r="E198" t="s">
+        <v>11</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D199" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F199" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G199" s="8" t="s">
-        <v>7</v>
+      <c r="A199">
+        <v>13</v>
+      </c>
+      <c r="B199" t="s">
+        <v>243</v>
+      </c>
+      <c r="C199" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" t="s">
+        <v>11</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200">
+        <v>14</v>
+      </c>
+      <c r="B200" t="s">
+        <v>25</v>
+      </c>
+      <c r="C200" t="s">
+        <v>26</v>
+      </c>
+      <c r="E200" t="s">
+        <v>11</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="4"/>
+      <c r="G202" s="5"/>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B200" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200" t="s">
-        <v>10</v>
-      </c>
-      <c r="E200" t="s">
-        <v>11</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="201" ht="27" spans="1:7">
-      <c r="A201">
+      <c r="B203" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B201" t="s">
-        <v>171</v>
-      </c>
-      <c r="C201" t="s">
-        <v>9</v>
-      </c>
-      <c r="D201" t="s">
-        <v>98</v>
-      </c>
-      <c r="E201" t="s">
-        <v>19</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202">
+      <c r="C203" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B202" t="s">
-        <v>250</v>
-      </c>
-      <c r="C202" t="s">
-        <v>26</v>
-      </c>
-      <c r="E202" t="s">
-        <v>11</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203">
+      <c r="D203" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B203" t="s">
-        <v>252</v>
-      </c>
-      <c r="C203" t="s">
-        <v>22</v>
-      </c>
-      <c r="E203" t="s">
-        <v>11</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>266</v>
+      <c r="E203" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F203" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G203" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B204" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>124</v>
+        <v>9</v>
+      </c>
+      <c r="D204" t="s">
+        <v>10</v>
       </c>
       <c r="E204" t="s">
         <v>11</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B205" t="s">
-        <v>248</v>
+        <v>13</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D205" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E205" t="s">
         <v>11</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B206" t="s">
         <v>77</v>
@@ -5449,126 +5500,129 @@
         <v>19</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B207" t="s">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="C207" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E207" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208">
+        <v>5</v>
+      </c>
+      <c r="B208" t="s">
+        <v>25</v>
+      </c>
+      <c r="C208" t="s">
+        <v>26</v>
+      </c>
+      <c r="E208" t="s">
+        <v>11</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="5"/>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F211" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G211" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" t="s">
         <v>9</v>
       </c>
-      <c r="B208" t="s">
-        <v>21</v>
-      </c>
-      <c r="C208" t="s">
-        <v>22</v>
-      </c>
-      <c r="E208" t="s">
-        <v>11</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="A209">
+      <c r="D212" t="s">
         <v>10</v>
       </c>
-      <c r="B209" t="s">
-        <v>25</v>
-      </c>
-      <c r="C209" t="s">
-        <v>26</v>
-      </c>
-      <c r="E209" t="s">
-        <v>11</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="4"/>
-      <c r="G211" s="5"/>
-    </row>
-    <row r="212" spans="1:7">
-      <c r="A212" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D212" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E212" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F212" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G212" s="8" t="s">
-        <v>7</v>
+      <c r="E212" t="s">
+        <v>11</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="C213" t="s">
         <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E213" t="s">
         <v>11</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="214" ht="27" spans="1:7">
       <c r="A214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B214" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C214" t="s">
         <v>9</v>
@@ -5585,16 +5639,13 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B215" t="s">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="C215" t="s">
-        <v>14</v>
-      </c>
-      <c r="D215" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E215" t="s">
         <v>11</v>
@@ -5605,13 +5656,13 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B216" t="s">
-        <v>57</v>
+        <v>262</v>
       </c>
       <c r="C216" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="E216" t="s">
         <v>11</v>
@@ -5622,61 +5673,64 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B217" t="s">
+        <v>224</v>
+      </c>
+      <c r="C217" t="s">
+        <v>124</v>
+      </c>
+      <c r="E217" t="s">
+        <v>11</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="C217" t="s">
-        <v>14</v>
-      </c>
-      <c r="E217" t="s">
-        <v>11</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B218" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="C218" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="D218" t="s">
+        <v>98</v>
       </c>
       <c r="E218" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B219" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C219" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E219" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B220" t="s">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="C220" t="s">
         <v>18</v>
@@ -5685,12 +5739,12 @@
         <v>19</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B221" t="s">
         <v>21</v>
@@ -5705,12 +5759,12 @@
         <v>23</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B222" t="s">
         <v>25</v>
@@ -5730,7 +5784,7 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -5779,7 +5833,7 @@
         <v>11</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5787,36 +5841,39 @@
         <v>2</v>
       </c>
       <c r="B227" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="C227" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E227" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="228" ht="27" spans="1:7">
       <c r="A228">
         <v>3</v>
       </c>
       <c r="B228" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="C228" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="D228" t="s">
+        <v>98</v>
       </c>
       <c r="E228" t="s">
         <v>19</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5824,19 +5881,19 @@
         <v>4</v>
       </c>
       <c r="B229" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="C229" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="D229" t="s">
+        <v>15</v>
       </c>
       <c r="E229" t="s">
         <v>11</v>
       </c>
-      <c r="F229" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G229" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5844,101 +5901,112 @@
         <v>5</v>
       </c>
       <c r="B230" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C230" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E230" t="s">
         <v>11</v>
       </c>
-      <c r="F230" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G230" s="2" t="s">
-        <v>28</v>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231">
+        <v>6</v>
+      </c>
+      <c r="B231" t="s">
+        <v>287</v>
+      </c>
+      <c r="C231" t="s">
+        <v>14</v>
+      </c>
+      <c r="E231" t="s">
+        <v>11</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="3" t="s">
+      <c r="A232">
+        <v>7</v>
+      </c>
+      <c r="B232" t="s">
+        <v>162</v>
+      </c>
+      <c r="C232" t="s">
+        <v>36</v>
+      </c>
+      <c r="E232" t="s">
+        <v>19</v>
+      </c>
+      <c r="G232" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
-      <c r="D232" s="3"/>
-      <c r="E232" s="3"/>
-      <c r="F232" s="4"/>
-      <c r="G232" s="5"/>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B233" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D233" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E233" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F233" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G233" s="8" t="s">
-        <v>7</v>
+      <c r="A233">
+        <v>8</v>
+      </c>
+      <c r="B233" t="s">
+        <v>35</v>
+      </c>
+      <c r="C233" t="s">
+        <v>36</v>
+      </c>
+      <c r="E233" t="s">
+        <v>11</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="C234" t="s">
-        <v>9</v>
-      </c>
-      <c r="D234" t="s">
+        <v>18</v>
+      </c>
+      <c r="E234" t="s">
+        <v>19</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235">
         <v>10</v>
       </c>
-      <c r="E234" t="s">
-        <v>11</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="235" ht="27" spans="1:7">
-      <c r="A235">
-        <v>2</v>
-      </c>
       <c r="B235" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="C235" t="s">
-        <v>9</v>
-      </c>
-      <c r="D235" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E235" t="s">
         <v>11</v>
       </c>
+      <c r="F235" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G235" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B236" t="s">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="C236" t="s">
         <v>26</v>
@@ -5946,121 +6014,107 @@
       <c r="E236" t="s">
         <v>11</v>
       </c>
+      <c r="F236" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="G236" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
-      <c r="A237">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3"/>
+      <c r="E238" s="3"/>
+      <c r="F238" s="4"/>
+      <c r="G238" s="5"/>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D239" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B237" t="s">
-        <v>252</v>
-      </c>
-      <c r="C237" t="s">
-        <v>22</v>
-      </c>
-      <c r="E237" t="s">
-        <v>11</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
-      <c r="A238">
+      <c r="E239" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B238" t="s">
-        <v>215</v>
-      </c>
-      <c r="C238" t="s">
-        <v>124</v>
-      </c>
-      <c r="E238" t="s">
-        <v>11</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
-      <c r="A239">
+      <c r="F239" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B239" t="s">
-        <v>248</v>
-      </c>
-      <c r="C239" t="s">
-        <v>9</v>
-      </c>
-      <c r="D239" t="s">
-        <v>98</v>
-      </c>
-      <c r="E239" t="s">
-        <v>11</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>295</v>
+      <c r="G239" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B240" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="D240" t="s">
+        <v>10</v>
       </c>
       <c r="E240" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B241" t="s">
-        <v>227</v>
+        <v>13</v>
       </c>
       <c r="C241" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="D241" t="s">
+        <v>15</v>
       </c>
       <c r="E241" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B242" t="s">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="C242" t="s">
-        <v>9</v>
-      </c>
-      <c r="D242" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="E242" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B243" t="s">
         <v>21</v>
@@ -6075,12 +6129,12 @@
         <v>23</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B244" t="s">
         <v>25</v>
@@ -6100,7 +6154,7 @@
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -6149,7 +6203,7 @@
         <v>11</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6157,7 +6211,7 @@
         <v>2</v>
       </c>
       <c r="B249" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="C249" t="s">
         <v>9</v>
@@ -6166,27 +6220,30 @@
         <v>98</v>
       </c>
       <c r="E249" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="250" ht="27" spans="1:7">
       <c r="A250">
         <v>3</v>
       </c>
       <c r="B250" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="C250" t="s">
-        <v>124</v>
+        <v>9</v>
+      </c>
+      <c r="D250" t="s">
+        <v>98</v>
       </c>
       <c r="E250" t="s">
         <v>11</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6194,16 +6251,16 @@
         <v>4</v>
       </c>
       <c r="B251" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="C251" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E251" t="s">
         <v>11</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6211,16 +6268,16 @@
         <v>5</v>
       </c>
       <c r="B252" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="C252" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E252" t="s">
         <v>11</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6228,16 +6285,16 @@
         <v>6</v>
       </c>
       <c r="B253" t="s">
-        <v>308</v>
+        <v>224</v>
       </c>
       <c r="C253" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="E253" t="s">
         <v>11</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6245,16 +6302,19 @@
         <v>7</v>
       </c>
       <c r="B254" t="s">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="C254" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="D254" t="s">
+        <v>98</v>
       </c>
       <c r="E254" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>181</v>
+        <v>304</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6262,19 +6322,16 @@
         <v>8</v>
       </c>
       <c r="B255" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C255" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E255" t="s">
-        <v>11</v>
-      </c>
-      <c r="F255" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>182</v>
+        <v>305</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6282,23 +6339,464 @@
         <v>9</v>
       </c>
       <c r="B256" t="s">
+        <v>236</v>
+      </c>
+      <c r="C256" t="s">
+        <v>18</v>
+      </c>
+      <c r="E256" t="s">
+        <v>19</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257">
+        <v>10</v>
+      </c>
+      <c r="B257" t="s">
+        <v>307</v>
+      </c>
+      <c r="C257" t="s">
+        <v>9</v>
+      </c>
+      <c r="D257" t="s">
+        <v>98</v>
+      </c>
+      <c r="E257" t="s">
+        <v>11</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258">
+        <v>11</v>
+      </c>
+      <c r="B258" t="s">
+        <v>21</v>
+      </c>
+      <c r="C258" t="s">
+        <v>22</v>
+      </c>
+      <c r="E258" t="s">
+        <v>11</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259">
+        <v>12</v>
+      </c>
+      <c r="B259" t="s">
         <v>25</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C259" t="s">
         <v>26</v>
       </c>
-      <c r="E256" t="s">
-        <v>11</v>
-      </c>
-      <c r="F256" s="1" t="s">
+      <c r="E259" t="s">
+        <v>11</v>
+      </c>
+      <c r="F259" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G256" s="2" t="s">
+      <c r="G259" s="2" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B261" s="3"/>
+      <c r="C261" s="3"/>
+      <c r="D261" s="3"/>
+      <c r="E261" s="3"/>
+      <c r="F261" s="4"/>
+      <c r="G261" s="5"/>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F262" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G262" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="B263" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" t="s">
+        <v>9</v>
+      </c>
+      <c r="D263" t="s">
+        <v>10</v>
+      </c>
+      <c r="E263" t="s">
+        <v>11</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264">
+        <v>2</v>
+      </c>
+      <c r="B264" t="s">
+        <v>139</v>
+      </c>
+      <c r="C264" t="s">
+        <v>9</v>
+      </c>
+      <c r="D264" t="s">
+        <v>98</v>
+      </c>
+      <c r="E264" t="s">
+        <v>11</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265">
+        <v>3</v>
+      </c>
+      <c r="B265" t="s">
+        <v>224</v>
+      </c>
+      <c r="C265" t="s">
+        <v>124</v>
+      </c>
+      <c r="E265" t="s">
+        <v>11</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266">
+        <v>4</v>
+      </c>
+      <c r="B266" t="s">
+        <v>313</v>
+      </c>
+      <c r="C266" t="s">
+        <v>22</v>
+      </c>
+      <c r="E266" t="s">
+        <v>11</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267">
+        <v>5</v>
+      </c>
+      <c r="B267" t="s">
+        <v>315</v>
+      </c>
+      <c r="C267" t="s">
+        <v>52</v>
+      </c>
+      <c r="E267" t="s">
+        <v>11</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268">
+        <v>6</v>
+      </c>
+      <c r="B268" t="s">
+        <v>317</v>
+      </c>
+      <c r="C268" t="s">
+        <v>52</v>
+      </c>
+      <c r="E268" t="s">
+        <v>11</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269">
+        <v>7</v>
+      </c>
+      <c r="B269" t="s">
+        <v>77</v>
+      </c>
+      <c r="C269" t="s">
+        <v>18</v>
+      </c>
+      <c r="E269" t="s">
+        <v>19</v>
+      </c>
+      <c r="G269" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270">
+        <v>8</v>
+      </c>
+      <c r="B270" t="s">
+        <v>21</v>
+      </c>
+      <c r="C270" t="s">
+        <v>22</v>
+      </c>
+      <c r="E270" t="s">
+        <v>11</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271">
+        <v>9</v>
+      </c>
+      <c r="B271" t="s">
+        <v>25</v>
+      </c>
+      <c r="C271" t="s">
+        <v>26</v>
+      </c>
+      <c r="E271" t="s">
+        <v>11</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B273" s="3"/>
+      <c r="C273" s="3"/>
+      <c r="D273" s="3"/>
+      <c r="E273" s="3"/>
+      <c r="F273" s="4"/>
+      <c r="G273" s="5"/>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D274" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E274" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F274" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G274" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275">
+        <v>1</v>
+      </c>
+      <c r="B275" t="s">
+        <v>8</v>
+      </c>
+      <c r="C275" t="s">
+        <v>9</v>
+      </c>
+      <c r="D275" t="s">
+        <v>10</v>
+      </c>
+      <c r="E275" t="s">
+        <v>11</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276">
+        <v>2</v>
+      </c>
+      <c r="B276" t="s">
+        <v>97</v>
+      </c>
+      <c r="C276" t="s">
+        <v>9</v>
+      </c>
+      <c r="D276" t="s">
+        <v>98</v>
+      </c>
+      <c r="E276" t="s">
+        <v>11</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277">
+        <v>3</v>
+      </c>
+      <c r="B277" t="s">
+        <v>216</v>
+      </c>
+      <c r="C277" t="s">
+        <v>26</v>
+      </c>
+      <c r="E277" t="s">
+        <v>11</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278">
+        <v>4</v>
+      </c>
+      <c r="B278" t="s">
+        <v>321</v>
+      </c>
+      <c r="C278" t="s">
+        <v>22</v>
+      </c>
+      <c r="E278" t="s">
+        <v>11</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279">
+        <v>5</v>
+      </c>
+      <c r="B279" t="s">
+        <v>21</v>
+      </c>
+      <c r="C279" t="s">
+        <v>22</v>
+      </c>
+      <c r="E279" t="s">
+        <v>11</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280">
+        <v>6</v>
+      </c>
+      <c r="B280" t="s">
+        <v>241</v>
+      </c>
+      <c r="C280" t="s">
+        <v>26</v>
+      </c>
+      <c r="E280" t="s">
+        <v>11</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281">
+        <v>7</v>
+      </c>
+      <c r="B281" t="s">
+        <v>323</v>
+      </c>
+      <c r="C281" t="s">
+        <v>22</v>
+      </c>
+      <c r="E281" t="s">
+        <v>19</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282">
+        <v>8</v>
+      </c>
+      <c r="B282" t="s">
+        <v>25</v>
+      </c>
+      <c r="C282" t="s">
+        <v>26</v>
+      </c>
+      <c r="E282" t="s">
+        <v>11</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A34:G34"/>
@@ -6309,20 +6807,22 @@
     <mergeCell ref="A79:G79"/>
     <mergeCell ref="A89:G89"/>
     <mergeCell ref="A104:G104"/>
-    <mergeCell ref="A120:G120"/>
-    <mergeCell ref="A128:G128"/>
-    <mergeCell ref="A136:G136"/>
-    <mergeCell ref="A166:G166"/>
-    <mergeCell ref="A174:G174"/>
-    <mergeCell ref="A190:G190"/>
-    <mergeCell ref="A198:G198"/>
-    <mergeCell ref="A211:G211"/>
+    <mergeCell ref="A114:G114"/>
+    <mergeCell ref="A130:G130"/>
+    <mergeCell ref="A138:G138"/>
+    <mergeCell ref="A146:G146"/>
+    <mergeCell ref="A177:G177"/>
+    <mergeCell ref="A185:G185"/>
+    <mergeCell ref="A202:G202"/>
+    <mergeCell ref="A210:G210"/>
     <mergeCell ref="A224:G224"/>
-    <mergeCell ref="A232:G232"/>
+    <mergeCell ref="A238:G238"/>
     <mergeCell ref="A246:G246"/>
+    <mergeCell ref="A261:G261"/>
+    <mergeCell ref="A273:G273"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E7 E8 E14 E21 E22 E23 E24 E25 E31 E32 E39 E40 E41 E44 E45 E46 E49 E50 E73 E74 E75 E76 E77 E78 E81 E82 E83 E84 E85 E86 E87 E88 E91 E92 E93 E94 E95 E96 E97 E98 E99 E100 E101 E102 E106 E107 E108 E109 E110 E111 E112 E113 E114 E115 E116 E117 E118 E122 E123 E124 E125 E126 E127 E130 E131 E132 E133 E134 E138 E139 E140 E141 E142 E143 E144 E145 E146 E147 E148 E149 E150 E151 E152 E153 E154 E155 E156 E157 E158 E159 E160 E161 E162 E163 E164 E165 E168 E169 E170 E171 E172 E176 E177 E178 E179 E180 E181 E182 E183 E184 E185 E186 E187 E188 E189 E192 E193 E194 E195 E196 E197 E200 E201 E202 E203 E204 E205 E206 E207 E208 E209 E213 E214 E215 E216 E217 E218 E219 E220 E221 E222 E226 E227 E228 E229 E230 E234 E235 E236 E237 E238 E239 E240 E241 E242 E243 E244 E248 E249 E250 E251 E252 E253 E254 E255 E256 E3:E5 E11:E13 E15:E20 E26:E30 E36:E38 E47:E48 E54:E56 E57:E58 E62:E64 E65:E66 E70:E72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E7 E8 E14 E21 E22 E23 E24 E25 E31 E32 E39 E40 E41 E44 E45 E46 E49 E50 E73 E74 E75 E76 E77 E78 E81 E82 E83 E84 E85 E86 E87 E88 E91 E92 E93 E94 E95 E96 E97 E98 E99 E100 E101 E102 E103 E106 E107 E108 E109 E110 E111 E112 E116 E117 E118 E119 E120 E121 E122 E123 E124 E125 E126 E127 E128 E132 E133 E134 E135 E136 E137 E140 E141 E142 E143 E144 E148 E149 E150 E151 E152 E153 E154 E155 E156 E157 E158 E159 E160 E161 E162 E163 E164 E165 E166 E167 E168 E169 E170 E171 E172 E173 E174 E175 E176 E179 E180 E181 E182 E183 E187 E188 E189 E190 E191 E192 E193 E194 E195 E196 E197 E198 E199 E200 E201 E204 E205 E206 E207 E208 E209 E212 E213 E214 E215 E216 E217 E218 E219 E220 E221 E222 E226 E227 E228 E229 E230 E231 E232 E233 E234 E235 E236 E240 E241 E242 E243 E244 E248 E249 E250 E251 E252 E253 E254 E255 E256 E257 E258 E259 E263 E264 E265 E266 E267 E268 E269 E270 E271 E275 E276 E277 E278 E279 E280 E281 E282 E3:E5 E11:E13 E15:E20 E26:E30 E36:E38 E47:E48 E54:E56 E57:E58 E62:E64 E65:E66 E70:E72">
       <formula1>"否,是"</formula1>
     </dataValidation>
   </dataValidations>

--- a/zywork-document/documents/数据库设计.xlsx
+++ b/zywork-document/documents/数据库设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327">
   <si>
     <t>角色表t_role</t>
   </si>
@@ -510,6 +510,18 @@
     <t>酒店固定电话</t>
   </si>
   <si>
+    <t>酒店员工表t_hotel</t>
+  </si>
+  <si>
+    <t>编号,AI</t>
+  </si>
+  <si>
+    <t>hotel_id</t>
+  </si>
+  <si>
+    <t>酒店编号，来源于t_hotel表</t>
+  </si>
+  <si>
     <t>房型表t_house</t>
   </si>
   <si>
@@ -552,9 +564,6 @@
     <t>房间描述</t>
   </si>
   <si>
-    <t>hotel_id</t>
-  </si>
-  <si>
     <t>房间所属酒店，来源于t_hotel表</t>
   </si>
   <si>
@@ -778,9 +787,6 @@
   </si>
   <si>
     <t>增值服务所属订单，通过订单可以找到客户信息，来源于t_customer_order表</t>
-  </si>
-  <si>
-    <t>酒店编号，来源于t_hotel表</t>
   </si>
   <si>
     <t>增值服务所属房间编号，来源于t_house表</t>
@@ -998,10 +1004,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1020,24 +1026,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1050,9 +1040,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1066,94 +1159,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1162,8 +1167,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,37 +1184,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,7 +1196,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,7 +1220,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,7 +1232,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,31 +1328,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,66 +1368,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1369,36 +1375,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1430,6 +1406,56 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1449,176 +1475,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1997,10 +2003,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G282"/>
+  <dimension ref="A1:G288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A120" sqref="$A119:$XFD120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3969,7 +3975,10 @@
         <v>166</v>
       </c>
       <c r="C117" t="s">
-        <v>63</v>
+        <v>9</v>
+      </c>
+      <c r="D117" t="s">
+        <v>98</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
@@ -3983,249 +3992,246 @@
         <v>3</v>
       </c>
       <c r="B118" t="s">
+        <v>97</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" t="s">
+        <v>98</v>
+      </c>
+      <c r="E118" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C118" t="s">
-        <v>127</v>
-      </c>
-      <c r="E118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119">
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="5"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B119" t="s">
-        <v>170</v>
-      </c>
-      <c r="C119" t="s">
-        <v>124</v>
-      </c>
-      <c r="E119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120">
+      <c r="E121" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B120" t="s">
-        <v>172</v>
-      </c>
-      <c r="C120" t="s">
-        <v>124</v>
-      </c>
-      <c r="E120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121">
+      <c r="F121" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C121" t="s">
-        <v>26</v>
-      </c>
-      <c r="E121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>175</v>
+      <c r="G121" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>176</v>
+        <v>9</v>
+      </c>
+      <c r="D122" t="s">
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="E125" t="s">
         <v>11</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C126" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="E126" t="s">
         <v>11</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="C127" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G127" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C128" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>28</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>166</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" t="s">
+        <v>98</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="5"/>
+      <c r="A130">
+        <v>9</v>
+      </c>
+      <c r="B130" t="s">
+        <v>159</v>
+      </c>
+      <c r="C130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" t="s">
+        <v>98</v>
+      </c>
+      <c r="E130" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G131" s="8" t="s">
-        <v>7</v>
+      <c r="A131">
+        <v>10</v>
+      </c>
+      <c r="B131" t="s">
+        <v>184</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" t="s">
+        <v>98</v>
+      </c>
+      <c r="E131" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E132" t="s">
         <v>11</v>
@@ -4236,19 +4242,19 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C133" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E133" t="s">
         <v>11</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>188</v>
@@ -4256,110 +4262,110 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
+        <v>13</v>
+      </c>
+      <c r="B134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" t="s">
+        <v>26</v>
+      </c>
+      <c r="E134" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="5"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B134" t="s">
-        <v>77</v>
-      </c>
-      <c r="C134" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" t="s">
-        <v>19</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135">
+      <c r="D137" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B135" t="s">
-        <v>21</v>
-      </c>
-      <c r="C135" t="s">
-        <v>22</v>
-      </c>
-      <c r="E135" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G135" s="2" t="s">
+      <c r="E137" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
-      <c r="A136">
-        <v>5</v>
-      </c>
-      <c r="B136" t="s">
-        <v>25</v>
-      </c>
-      <c r="C136" t="s">
-        <v>26</v>
-      </c>
-      <c r="E136" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="3" t="s">
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="5"/>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G139" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>192</v>
@@ -4367,19 +4373,19 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>193</v>
@@ -4387,110 +4393,110 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="5"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B142" t="s">
-        <v>77</v>
-      </c>
-      <c r="C142" t="s">
-        <v>18</v>
-      </c>
-      <c r="E142" t="s">
-        <v>19</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143">
+      <c r="D145" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B143" t="s">
-        <v>21</v>
-      </c>
-      <c r="C143" t="s">
-        <v>22</v>
-      </c>
-      <c r="E143" t="s">
-        <v>11</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G143" s="2" t="s">
+      <c r="E145" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" t="s">
+        <v>11</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
-      <c r="A144">
-        <v>5</v>
-      </c>
-      <c r="B144" t="s">
-        <v>25</v>
-      </c>
-      <c r="C144" t="s">
-        <v>26</v>
-      </c>
-      <c r="E144" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="3" t="s">
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>2</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="5"/>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G147" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>197</v>
@@ -4498,19 +4504,19 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B149" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E149" t="s">
         <v>11</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>198</v>
@@ -4518,155 +4524,144 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150" t="s">
+        <v>26</v>
+      </c>
+      <c r="E150" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="5"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B150" t="s">
-        <v>159</v>
-      </c>
-      <c r="C150" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" t="s">
-        <v>98</v>
-      </c>
-      <c r="E150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151">
+      <c r="D153" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B151" t="s">
-        <v>200</v>
-      </c>
-      <c r="C151" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" t="s">
-        <v>98</v>
-      </c>
-      <c r="E151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152">
+      <c r="E153" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B152" t="s">
-        <v>157</v>
-      </c>
-      <c r="C152" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" t="s">
-        <v>98</v>
-      </c>
-      <c r="E152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153">
+      <c r="F153" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B153" t="s">
-        <v>203</v>
-      </c>
-      <c r="C153" t="s">
-        <v>74</v>
-      </c>
-      <c r="E153" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>204</v>
+      <c r="G153" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B154" t="s">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>74</v>
+        <v>9</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
       </c>
       <c r="E154" t="s">
         <v>11</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C155" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="D155" t="s">
+        <v>98</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156">
+        <v>3</v>
+      </c>
+      <c r="B156" t="s">
+        <v>159</v>
+      </c>
+      <c r="C156" t="s">
         <v>9</v>
       </c>
-      <c r="B156" t="s">
-        <v>209</v>
-      </c>
-      <c r="C156" t="s">
-        <v>14</v>
+      <c r="D156" t="s">
+        <v>98</v>
       </c>
       <c r="E156" t="s">
         <v>11</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="157" ht="27" spans="1:7">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B157" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C157" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="D157" t="s">
+        <v>98</v>
       </c>
       <c r="E157" t="s">
         <v>11</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="158" ht="27" spans="1:7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B158" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="C158" t="s">
         <v>9</v>
@@ -4675,120 +4670,123 @@
         <v>98</v>
       </c>
       <c r="E158" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B159" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="C159" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="E159" t="s">
         <v>11</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B160" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C160" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="E160" t="s">
         <v>11</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B161" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C161" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="E161" t="s">
         <v>11</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B162" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C162" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="163" ht="27" spans="1:7">
       <c r="A163">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B163" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C163" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="E163" t="s">
         <v>11</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="164" ht="27" spans="1:7">
       <c r="A164">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C164" t="s">
-        <v>124</v>
+        <v>9</v>
+      </c>
+      <c r="D164" t="s">
+        <v>98</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B165" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="C165" t="s">
         <v>124</v>
@@ -4797,257 +4795,265 @@
         <v>11</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B166" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="E166" t="s">
         <v>11</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B167" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C167" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="E167" t="s">
         <v>11</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B168" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C168" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="E168" t="s">
         <v>11</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B169" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C169" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B170" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C170" t="s">
+        <v>124</v>
+      </c>
+      <c r="E170" t="s">
+        <v>11</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171">
         <v>18</v>
       </c>
-      <c r="E170" t="s">
-        <v>19</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="171" ht="27" spans="1:7">
-      <c r="A171">
-        <v>24</v>
-      </c>
       <c r="B171" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C171" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="E171" t="s">
         <v>11</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B172" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="C172" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" t="s">
+        <v>98</v>
+      </c>
+      <c r="E172" t="s">
+        <v>11</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173">
+        <v>20</v>
+      </c>
+      <c r="B173" t="s">
+        <v>233</v>
+      </c>
+      <c r="C173" t="s">
         <v>22</v>
       </c>
-      <c r="E172" t="s">
-        <v>11</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="173" ht="27" spans="1:7">
-      <c r="A173">
-        <v>26</v>
-      </c>
-      <c r="B173" t="s">
-        <v>241</v>
-      </c>
-      <c r="C173" t="s">
-        <v>26</v>
-      </c>
       <c r="E173" t="s">
         <v>11</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G173" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B174" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C174" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E174" t="s">
         <v>11</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B175" t="s">
+        <v>237</v>
+      </c>
+      <c r="C175" t="s">
+        <v>22</v>
+      </c>
+      <c r="E175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176">
+        <v>23</v>
+      </c>
+      <c r="B176" t="s">
+        <v>239</v>
+      </c>
+      <c r="C176" t="s">
+        <v>18</v>
+      </c>
+      <c r="E176" t="s">
+        <v>19</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="177" ht="27" spans="1:7">
+      <c r="A177">
+        <v>24</v>
+      </c>
+      <c r="B177" t="s">
+        <v>241</v>
+      </c>
+      <c r="C177" t="s">
+        <v>26</v>
+      </c>
+      <c r="E177" t="s">
+        <v>11</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178">
         <v>25</v>
       </c>
-      <c r="C175" t="s">
+      <c r="B178" t="s">
+        <v>21</v>
+      </c>
+      <c r="C178" t="s">
+        <v>22</v>
+      </c>
+      <c r="E178" t="s">
+        <v>11</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="179" ht="27" spans="1:7">
+      <c r="A179">
         <v>26</v>
       </c>
-      <c r="E175" t="s">
-        <v>11</v>
-      </c>
-      <c r="F175" s="1" t="s">
+      <c r="B179" t="s">
+        <v>244</v>
+      </c>
+      <c r="C179" t="s">
+        <v>26</v>
+      </c>
+      <c r="E179" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G175" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="3" t="s">
+      <c r="G179" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="4"/>
-      <c r="G177" s="5"/>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F178" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G178" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179">
-        <v>1</v>
-      </c>
-      <c r="B179" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" t="s">
-        <v>10</v>
-      </c>
-      <c r="E179" t="s">
-        <v>11</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>246</v>
       </c>
       <c r="C180" t="s">
-        <v>14</v>
-      </c>
-      <c r="D180" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E180" t="s">
         <v>11</v>
@@ -5058,1325 +5064,1311 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181">
+        <v>28</v>
+      </c>
+      <c r="B181" t="s">
+        <v>25</v>
+      </c>
+      <c r="C181" t="s">
+        <v>26</v>
+      </c>
+      <c r="E181" t="s">
+        <v>11</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="5"/>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C184" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B181" t="s">
-        <v>77</v>
-      </c>
-      <c r="C181" t="s">
-        <v>18</v>
-      </c>
-      <c r="E181" t="s">
-        <v>19</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182">
+      <c r="D184" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B182" t="s">
-        <v>21</v>
-      </c>
-      <c r="C182" t="s">
-        <v>22</v>
-      </c>
-      <c r="E182" t="s">
-        <v>11</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G182" s="2" t="s">
+      <c r="E184" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F184" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G184" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" t="s">
+        <v>11</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
-      <c r="A183">
-        <v>5</v>
-      </c>
-      <c r="B183" t="s">
-        <v>25</v>
-      </c>
-      <c r="C183" t="s">
-        <v>26</v>
-      </c>
-      <c r="E183" t="s">
-        <v>11</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="3" t="s">
+    <row r="186" spans="1:7">
+      <c r="A186">
+        <v>2</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" t="s">
+        <v>14</v>
+      </c>
+      <c r="D186" t="s">
+        <v>15</v>
+      </c>
+      <c r="E186" t="s">
+        <v>11</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="4"/>
-      <c r="G185" s="5"/>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E186" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F186" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G186" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="188" ht="27" spans="1:7">
+    <row r="188" spans="1:7">
       <c r="A188">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B188" t="s">
+        <v>21</v>
+      </c>
+      <c r="C188" t="s">
+        <v>22</v>
+      </c>
+      <c r="E188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="C188" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" t="s">
-        <v>98</v>
-      </c>
-      <c r="E188" t="s">
-        <v>11</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189">
+        <v>5</v>
+      </c>
+      <c r="B189" t="s">
+        <v>25</v>
+      </c>
+      <c r="C189" t="s">
+        <v>26</v>
+      </c>
+      <c r="E189" t="s">
+        <v>11</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="5"/>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B189" t="s">
-        <v>178</v>
-      </c>
-      <c r="C189" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" t="s">
-        <v>98</v>
-      </c>
-      <c r="E189" t="s">
-        <v>11</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190">
+      <c r="D192" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B190" t="s">
-        <v>200</v>
-      </c>
-      <c r="C190" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190" t="s">
-        <v>98</v>
-      </c>
-      <c r="E190" t="s">
-        <v>19</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191">
+      <c r="E192" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B191" t="s">
-        <v>256</v>
-      </c>
-      <c r="C191" t="s">
-        <v>63</v>
-      </c>
-      <c r="E191" t="s">
-        <v>11</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192">
+      <c r="F192" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B192" t="s">
-        <v>258</v>
-      </c>
-      <c r="C192" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" t="s">
-        <v>98</v>
-      </c>
-      <c r="E192" t="s">
-        <v>11</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>259</v>
+      <c r="G192" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B193" t="s">
-        <v>260</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="D193" t="s">
+        <v>10</v>
       </c>
       <c r="E193" t="s">
         <v>11</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="194" ht="27" spans="1:7">
       <c r="A194">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B194" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C194" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="D194" t="s">
+        <v>98</v>
       </c>
       <c r="E194" t="s">
         <v>11</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195">
+        <v>3</v>
+      </c>
+      <c r="B195" t="s">
+        <v>166</v>
+      </c>
+      <c r="C195" t="s">
         <v>9</v>
       </c>
-      <c r="B195" t="s">
-        <v>224</v>
-      </c>
-      <c r="C195" t="s">
-        <v>124</v>
+      <c r="D195" t="s">
+        <v>98</v>
       </c>
       <c r="E195" t="s">
         <v>11</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>264</v>
+        <v>167</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B196" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="C196" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="D196" t="s">
+        <v>98</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B197" t="s">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="C197" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="E197" t="s">
         <v>11</v>
       </c>
-      <c r="F197" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G197" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="198" ht="27" spans="1:7">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B198" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="C198" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="D198" t="s">
+        <v>98</v>
       </c>
       <c r="E198" t="s">
         <v>11</v>
       </c>
-      <c r="F198" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G198" s="2" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B199" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="C199" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E199" t="s">
         <v>11</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B200" t="s">
-        <v>25</v>
+        <v>264</v>
       </c>
       <c r="C200" t="s">
+        <v>22</v>
+      </c>
+      <c r="E200" t="s">
+        <v>11</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201">
+        <v>9</v>
+      </c>
+      <c r="B201" t="s">
+        <v>227</v>
+      </c>
+      <c r="C201" t="s">
+        <v>124</v>
+      </c>
+      <c r="E201" t="s">
+        <v>11</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202">
+        <v>10</v>
+      </c>
+      <c r="B202" t="s">
+        <v>267</v>
+      </c>
+      <c r="C202" t="s">
         <v>26</v>
       </c>
-      <c r="E200" t="s">
-        <v>11</v>
-      </c>
-      <c r="F200" s="1" t="s">
+      <c r="E202" t="s">
+        <v>11</v>
+      </c>
+      <c r="F202" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G200" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="4"/>
-      <c r="G202" s="5"/>
+      <c r="G202" s="2" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D203" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E203" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F203" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G203" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
+      <c r="A203">
+        <v>11</v>
+      </c>
+      <c r="B203" t="s">
+        <v>21</v>
+      </c>
+      <c r="C203" t="s">
+        <v>22</v>
+      </c>
+      <c r="E203" t="s">
+        <v>11</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="204" ht="27" spans="1:7">
       <c r="A204">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
-      </c>
-      <c r="D204" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E204" t="s">
         <v>11</v>
       </c>
+      <c r="F204" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="G204" s="2" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B205" t="s">
-        <v>13</v>
+        <v>246</v>
       </c>
       <c r="C205" t="s">
-        <v>14</v>
-      </c>
-      <c r="D205" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E205" t="s">
         <v>11</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206">
+        <v>14</v>
+      </c>
+      <c r="B206" t="s">
+        <v>25</v>
+      </c>
+      <c r="C206" t="s">
+        <v>26</v>
+      </c>
+      <c r="E206" t="s">
+        <v>11</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="5"/>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C209" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B206" t="s">
-        <v>77</v>
-      </c>
-      <c r="C206" t="s">
-        <v>18</v>
-      </c>
-      <c r="E206" t="s">
-        <v>19</v>
-      </c>
-      <c r="G206" s="2" t="s">
+      <c r="D209" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F209" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G209" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210">
+        <v>1</v>
+      </c>
+      <c r="B210" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" t="s">
+        <v>10</v>
+      </c>
+      <c r="E210" t="s">
+        <v>11</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
-      <c r="A207">
-        <v>4</v>
-      </c>
-      <c r="B207" t="s">
-        <v>21</v>
-      </c>
-      <c r="C207" t="s">
-        <v>22</v>
-      </c>
-      <c r="E207" t="s">
-        <v>11</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G207" s="2" t="s">
+    <row r="211" spans="1:7">
+      <c r="A211">
+        <v>2</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" t="s">
+        <v>14</v>
+      </c>
+      <c r="D211" t="s">
+        <v>15</v>
+      </c>
+      <c r="E211" t="s">
+        <v>11</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="A208">
-        <v>5</v>
-      </c>
-      <c r="B208" t="s">
-        <v>25</v>
-      </c>
-      <c r="C208" t="s">
-        <v>26</v>
-      </c>
-      <c r="E208" t="s">
-        <v>11</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="4"/>
-      <c r="G210" s="5"/>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D211" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E211" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F211" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G211" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
-      </c>
-      <c r="D212" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213">
+        <v>4</v>
+      </c>
+      <c r="B213" t="s">
+        <v>21</v>
+      </c>
+      <c r="C213" t="s">
+        <v>22</v>
+      </c>
+      <c r="E213" t="s">
+        <v>11</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214">
+        <v>5</v>
+      </c>
+      <c r="B214" t="s">
+        <v>25</v>
+      </c>
+      <c r="C214" t="s">
+        <v>26</v>
+      </c>
+      <c r="E214" t="s">
+        <v>11</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="5"/>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B217" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B213" t="s">
-        <v>178</v>
-      </c>
-      <c r="C213" t="s">
-        <v>9</v>
-      </c>
-      <c r="D213" t="s">
-        <v>98</v>
-      </c>
-      <c r="E213" t="s">
-        <v>11</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="214" ht="27" spans="1:7">
-      <c r="A214">
+      <c r="C217" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B214" t="s">
-        <v>159</v>
-      </c>
-      <c r="C214" t="s">
-        <v>9</v>
-      </c>
-      <c r="D214" t="s">
-        <v>98</v>
-      </c>
-      <c r="E214" t="s">
-        <v>19</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7">
-      <c r="A215">
+      <c r="D217" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B215" t="s">
-        <v>260</v>
-      </c>
-      <c r="C215" t="s">
-        <v>26</v>
-      </c>
-      <c r="E215" t="s">
-        <v>11</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
-      <c r="A216">
+      <c r="E217" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B216" t="s">
-        <v>262</v>
-      </c>
-      <c r="C216" t="s">
-        <v>22</v>
-      </c>
-      <c r="E216" t="s">
-        <v>11</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="A217">
+      <c r="F217" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B217" t="s">
-        <v>224</v>
-      </c>
-      <c r="C217" t="s">
-        <v>124</v>
-      </c>
-      <c r="E217" t="s">
-        <v>11</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>277</v>
+      <c r="G217" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B218" t="s">
-        <v>258</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
         <v>11</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B219" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C219" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="D219" t="s">
+        <v>98</v>
       </c>
       <c r="E219" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="220" ht="27" spans="1:7">
       <c r="A220">
+        <v>3</v>
+      </c>
+      <c r="B220" t="s">
+        <v>159</v>
+      </c>
+      <c r="C220" t="s">
         <v>9</v>
       </c>
-      <c r="B220" t="s">
-        <v>236</v>
-      </c>
-      <c r="C220" t="s">
-        <v>18</v>
+      <c r="D220" t="s">
+        <v>98</v>
       </c>
       <c r="E220" t="s">
         <v>19</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B221" t="s">
-        <v>21</v>
+        <v>262</v>
       </c>
       <c r="C221" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E221" t="s">
         <v>11</v>
       </c>
-      <c r="F221" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G221" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B222" t="s">
-        <v>25</v>
+        <v>264</v>
       </c>
       <c r="C222" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E222" t="s">
         <v>11</v>
       </c>
-      <c r="F222" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G222" s="2" t="s">
-        <v>28</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223">
+        <v>6</v>
+      </c>
+      <c r="B223" t="s">
+        <v>227</v>
+      </c>
+      <c r="C223" t="s">
+        <v>124</v>
+      </c>
+      <c r="E223" t="s">
+        <v>11</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="224" spans="1:7">
-      <c r="A224" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
-      <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
-      <c r="F224" s="4"/>
-      <c r="G224" s="5"/>
+      <c r="A224">
+        <v>7</v>
+      </c>
+      <c r="B224" t="s">
+        <v>260</v>
+      </c>
+      <c r="C224" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" t="s">
+        <v>98</v>
+      </c>
+      <c r="E224" t="s">
+        <v>11</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="225" spans="1:7">
-      <c r="A225" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D225" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E225" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F225" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G225" s="8" t="s">
-        <v>7</v>
+      <c r="A225">
+        <v>8</v>
+      </c>
+      <c r="B225" t="s">
+        <v>77</v>
+      </c>
+      <c r="C225" t="s">
+        <v>18</v>
+      </c>
+      <c r="E225" t="s">
+        <v>19</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>239</v>
       </c>
       <c r="C226" t="s">
-        <v>9</v>
-      </c>
-      <c r="D226" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E226" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227">
+        <v>10</v>
+      </c>
+      <c r="B227" t="s">
+        <v>21</v>
+      </c>
+      <c r="C227" t="s">
+        <v>22</v>
+      </c>
+      <c r="E227" t="s">
+        <v>11</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228">
+        <v>11</v>
+      </c>
+      <c r="B228" t="s">
+        <v>25</v>
+      </c>
+      <c r="C228" t="s">
+        <v>26</v>
+      </c>
+      <c r="E228" t="s">
+        <v>11</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3"/>
+      <c r="E230" s="3"/>
+      <c r="F230" s="4"/>
+      <c r="G230" s="5"/>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B231" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B227" t="s">
-        <v>178</v>
-      </c>
-      <c r="C227" t="s">
-        <v>9</v>
-      </c>
-      <c r="D227" t="s">
-        <v>98</v>
-      </c>
-      <c r="E227" t="s">
-        <v>19</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="228" ht="27" spans="1:7">
-      <c r="A228">
+      <c r="C231" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B228" t="s">
-        <v>159</v>
-      </c>
-      <c r="C228" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" t="s">
-        <v>98</v>
-      </c>
-      <c r="E228" t="s">
-        <v>19</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229">
+      <c r="D231" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B229" t="s">
-        <v>110</v>
-      </c>
-      <c r="C229" t="s">
-        <v>14</v>
-      </c>
-      <c r="D229" t="s">
-        <v>15</v>
-      </c>
-      <c r="E229" t="s">
-        <v>11</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230">
+      <c r="E231" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B230" t="s">
-        <v>57</v>
-      </c>
-      <c r="C230" t="s">
-        <v>58</v>
-      </c>
-      <c r="E230" t="s">
-        <v>11</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
-      <c r="A231">
+      <c r="F231" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B231" t="s">
-        <v>287</v>
-      </c>
-      <c r="C231" t="s">
-        <v>14</v>
-      </c>
-      <c r="E231" t="s">
-        <v>11</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>288</v>
+      <c r="G231" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B232" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="D232" t="s">
+        <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B233" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="C233" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="D233" t="s">
+        <v>98</v>
       </c>
       <c r="E233" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="234" ht="27" spans="1:7">
       <c r="A234">
+        <v>3</v>
+      </c>
+      <c r="B234" t="s">
+        <v>159</v>
+      </c>
+      <c r="C234" t="s">
         <v>9</v>
       </c>
-      <c r="B234" t="s">
-        <v>77</v>
-      </c>
-      <c r="C234" t="s">
-        <v>18</v>
+      <c r="D234" t="s">
+        <v>98</v>
       </c>
       <c r="E234" t="s">
         <v>19</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B235" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="C235" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="D235" t="s">
+        <v>15</v>
       </c>
       <c r="E235" t="s">
         <v>11</v>
       </c>
-      <c r="F235" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G235" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B236" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C236" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E236" t="s">
         <v>11</v>
       </c>
-      <c r="F236" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G236" s="2" t="s">
-        <v>28</v>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237">
+        <v>6</v>
+      </c>
+      <c r="B237" t="s">
+        <v>289</v>
+      </c>
+      <c r="C237" t="s">
+        <v>14</v>
+      </c>
+      <c r="E237" t="s">
+        <v>11</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B238" s="3"/>
-      <c r="C238" s="3"/>
-      <c r="D238" s="3"/>
-      <c r="E238" s="3"/>
-      <c r="F238" s="4"/>
-      <c r="G238" s="5"/>
+      <c r="A238">
+        <v>7</v>
+      </c>
+      <c r="B238" t="s">
+        <v>162</v>
+      </c>
+      <c r="C238" t="s">
+        <v>36</v>
+      </c>
+      <c r="E238" t="s">
+        <v>19</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C239" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D239" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E239" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F239" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G239" s="8" t="s">
-        <v>7</v>
+      <c r="A239">
+        <v>8</v>
+      </c>
+      <c r="B239" t="s">
+        <v>35</v>
+      </c>
+      <c r="C239" t="s">
+        <v>36</v>
+      </c>
+      <c r="E239" t="s">
+        <v>11</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="C240" t="s">
-        <v>9</v>
-      </c>
-      <c r="D240" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E240" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B241" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C241" t="s">
-        <v>14</v>
-      </c>
-      <c r="D241" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E241" t="s">
         <v>11</v>
       </c>
+      <c r="F241" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G241" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242">
+        <v>11</v>
+      </c>
+      <c r="B242" t="s">
+        <v>25</v>
+      </c>
+      <c r="C242" t="s">
+        <v>26</v>
+      </c>
+      <c r="E242" t="s">
+        <v>11</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
+      <c r="D244" s="3"/>
+      <c r="E244" s="3"/>
+      <c r="F244" s="4"/>
+      <c r="G244" s="5"/>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C245" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B242" t="s">
-        <v>77</v>
-      </c>
-      <c r="C242" t="s">
-        <v>18</v>
-      </c>
-      <c r="E242" t="s">
-        <v>19</v>
-      </c>
-      <c r="G242" s="2" t="s">
+      <c r="D245" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F245" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G245" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246">
+        <v>1</v>
+      </c>
+      <c r="B246" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" t="s">
+        <v>9</v>
+      </c>
+      <c r="D246" t="s">
+        <v>10</v>
+      </c>
+      <c r="E246" t="s">
+        <v>11</v>
+      </c>
+      <c r="G246" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
-      <c r="A243">
-        <v>4</v>
-      </c>
-      <c r="B243" t="s">
-        <v>21</v>
-      </c>
-      <c r="C243" t="s">
-        <v>22</v>
-      </c>
-      <c r="E243" t="s">
-        <v>11</v>
-      </c>
-      <c r="F243" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G243" s="2" t="s">
+    <row r="247" spans="1:7">
+      <c r="A247">
+        <v>2</v>
+      </c>
+      <c r="B247" t="s">
+        <v>13</v>
+      </c>
+      <c r="C247" t="s">
+        <v>14</v>
+      </c>
+      <c r="D247" t="s">
+        <v>15</v>
+      </c>
+      <c r="E247" t="s">
+        <v>11</v>
+      </c>
+      <c r="G247" s="2" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
-      <c r="A244">
-        <v>5</v>
-      </c>
-      <c r="B244" t="s">
-        <v>25</v>
-      </c>
-      <c r="C244" t="s">
-        <v>26</v>
-      </c>
-      <c r="E244" t="s">
-        <v>11</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7">
-      <c r="A246" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B246" s="3"/>
-      <c r="C246" s="3"/>
-      <c r="D246" s="3"/>
-      <c r="E246" s="3"/>
-      <c r="F246" s="4"/>
-      <c r="G246" s="5"/>
-    </row>
-    <row r="247" spans="1:7">
-      <c r="A247" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D247" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E247" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F247" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G247" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="C248" t="s">
-        <v>9</v>
-      </c>
-      <c r="D248" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E248" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249">
+        <v>4</v>
+      </c>
+      <c r="B249" t="s">
+        <v>21</v>
+      </c>
+      <c r="C249" t="s">
+        <v>22</v>
+      </c>
+      <c r="E249" t="s">
+        <v>11</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250">
+        <v>5</v>
+      </c>
+      <c r="B250" t="s">
+        <v>25</v>
+      </c>
+      <c r="C250" t="s">
+        <v>26</v>
+      </c>
+      <c r="E250" t="s">
+        <v>11</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B252" s="3"/>
+      <c r="C252" s="3"/>
+      <c r="D252" s="3"/>
+      <c r="E252" s="3"/>
+      <c r="F252" s="4"/>
+      <c r="G252" s="5"/>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B253" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B249" t="s">
-        <v>178</v>
-      </c>
-      <c r="C249" t="s">
-        <v>9</v>
-      </c>
-      <c r="D249" t="s">
-        <v>98</v>
-      </c>
-      <c r="E249" t="s">
-        <v>19</v>
-      </c>
-      <c r="G249" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="250" ht="27" spans="1:7">
-      <c r="A250">
+      <c r="C253" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B250" t="s">
-        <v>159</v>
-      </c>
-      <c r="C250" t="s">
-        <v>9</v>
-      </c>
-      <c r="D250" t="s">
-        <v>98</v>
-      </c>
-      <c r="E250" t="s">
-        <v>11</v>
-      </c>
-      <c r="G250" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7">
-      <c r="A251">
+      <c r="D253" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B251" t="s">
-        <v>260</v>
-      </c>
-      <c r="C251" t="s">
-        <v>26</v>
-      </c>
-      <c r="E251" t="s">
-        <v>11</v>
-      </c>
-      <c r="G251" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
-      <c r="A252">
+      <c r="E253" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B252" t="s">
-        <v>262</v>
-      </c>
-      <c r="C252" t="s">
-        <v>22</v>
-      </c>
-      <c r="E252" t="s">
-        <v>11</v>
-      </c>
-      <c r="G252" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
-      <c r="A253">
+      <c r="F253" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B253" t="s">
-        <v>224</v>
-      </c>
-      <c r="C253" t="s">
-        <v>124</v>
-      </c>
-      <c r="E253" t="s">
-        <v>11</v>
-      </c>
-      <c r="G253" s="2" t="s">
-        <v>303</v>
+      <c r="G253" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B254" t="s">
-        <v>258</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="E254" t="s">
         <v>11</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B255" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C255" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="D255" t="s">
+        <v>98</v>
       </c>
       <c r="E255" t="s">
         <v>19</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="256" ht="27" spans="1:7">
       <c r="A256">
+        <v>3</v>
+      </c>
+      <c r="B256" t="s">
+        <v>159</v>
+      </c>
+      <c r="C256" t="s">
         <v>9</v>
       </c>
-      <c r="B256" t="s">
-        <v>236</v>
-      </c>
-      <c r="C256" t="s">
-        <v>18</v>
+      <c r="D256" t="s">
+        <v>98</v>
       </c>
       <c r="E256" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B257" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="C257" t="s">
-        <v>9</v>
-      </c>
-      <c r="D257" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="E257" t="s">
         <v>11</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B258" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="C258" t="s">
         <v>22</v>
@@ -6384,312 +6376,326 @@
       <c r="E258" t="s">
         <v>11</v>
       </c>
-      <c r="F258" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G258" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B259" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="C259" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="E259" t="s">
         <v>11</v>
       </c>
-      <c r="F259" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G259" s="2" t="s">
-        <v>28</v>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260">
+        <v>7</v>
+      </c>
+      <c r="B260" t="s">
+        <v>260</v>
+      </c>
+      <c r="C260" t="s">
+        <v>9</v>
+      </c>
+      <c r="D260" t="s">
+        <v>98</v>
+      </c>
+      <c r="E260" t="s">
+        <v>11</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B261" s="3"/>
-      <c r="C261" s="3"/>
-      <c r="D261" s="3"/>
-      <c r="E261" s="3"/>
-      <c r="F261" s="4"/>
-      <c r="G261" s="5"/>
+      <c r="A261">
+        <v>8</v>
+      </c>
+      <c r="B261" t="s">
+        <v>77</v>
+      </c>
+      <c r="C261" t="s">
+        <v>18</v>
+      </c>
+      <c r="E261" t="s">
+        <v>19</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B262" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D262" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E262" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F262" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G262" s="8" t="s">
-        <v>7</v>
+      <c r="A262">
+        <v>9</v>
+      </c>
+      <c r="B262" t="s">
+        <v>239</v>
+      </c>
+      <c r="C262" t="s">
+        <v>18</v>
+      </c>
+      <c r="E262" t="s">
+        <v>19</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B263" t="s">
-        <v>8</v>
+        <v>309</v>
       </c>
       <c r="C263" t="s">
         <v>9</v>
       </c>
       <c r="D263" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E263" t="s">
         <v>11</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B264" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="C264" t="s">
-        <v>9</v>
-      </c>
-      <c r="D264" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E264" t="s">
         <v>11</v>
       </c>
+      <c r="F264" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G264" s="2" t="s">
-        <v>140</v>
+        <v>311</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265">
+        <v>12</v>
+      </c>
+      <c r="B265" t="s">
+        <v>25</v>
+      </c>
+      <c r="C265" t="s">
+        <v>26</v>
+      </c>
+      <c r="E265" t="s">
+        <v>11</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B267" s="3"/>
+      <c r="C267" s="3"/>
+      <c r="D267" s="3"/>
+      <c r="E267" s="3"/>
+      <c r="F267" s="4"/>
+      <c r="G267" s="5"/>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C268" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B265" t="s">
-        <v>224</v>
-      </c>
-      <c r="C265" t="s">
-        <v>124</v>
-      </c>
-      <c r="E265" t="s">
-        <v>11</v>
-      </c>
-      <c r="G265" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7">
-      <c r="A266">
+      <c r="D268" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B266" t="s">
-        <v>313</v>
-      </c>
-      <c r="C266" t="s">
-        <v>22</v>
-      </c>
-      <c r="E266" t="s">
-        <v>11</v>
-      </c>
-      <c r="G266" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7">
-      <c r="A267">
+      <c r="E268" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B267" t="s">
-        <v>315</v>
-      </c>
-      <c r="C267" t="s">
-        <v>52</v>
-      </c>
-      <c r="E267" t="s">
-        <v>11</v>
-      </c>
-      <c r="G267" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7">
-      <c r="A268">
+      <c r="F268" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B268" t="s">
-        <v>317</v>
-      </c>
-      <c r="C268" t="s">
-        <v>52</v>
-      </c>
-      <c r="E268" t="s">
-        <v>11</v>
-      </c>
-      <c r="G268" s="2" t="s">
-        <v>318</v>
+      <c r="G268" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B269" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="C269" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="D269" t="s">
+        <v>10</v>
       </c>
       <c r="E269" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>189</v>
+        <v>313</v>
       </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B270" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="C270" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="D270" t="s">
+        <v>98</v>
       </c>
       <c r="E270" t="s">
         <v>11</v>
       </c>
-      <c r="F270" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G270" s="2" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B271" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="C271" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="E271" t="s">
         <v>11</v>
       </c>
-      <c r="F271" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G271" s="2" t="s">
-        <v>28</v>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272">
+        <v>4</v>
+      </c>
+      <c r="B272" t="s">
+        <v>315</v>
+      </c>
+      <c r="C272" t="s">
+        <v>22</v>
+      </c>
+      <c r="E272" t="s">
+        <v>11</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="3" t="s">
+      <c r="A273">
+        <v>5</v>
+      </c>
+      <c r="B273" t="s">
+        <v>317</v>
+      </c>
+      <c r="C273" t="s">
+        <v>52</v>
+      </c>
+      <c r="E273" t="s">
+        <v>11</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274">
+        <v>6</v>
+      </c>
+      <c r="B274" t="s">
         <v>319</v>
       </c>
-      <c r="B273" s="3"/>
-      <c r="C273" s="3"/>
-      <c r="D273" s="3"/>
-      <c r="E273" s="3"/>
-      <c r="F273" s="4"/>
-      <c r="G273" s="5"/>
-    </row>
-    <row r="274" spans="1:7">
-      <c r="A274" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B274" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C274" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D274" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E274" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F274" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G274" s="8" t="s">
-        <v>7</v>
+      <c r="C274" t="s">
+        <v>52</v>
+      </c>
+      <c r="E274" t="s">
+        <v>11</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B275" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="C275" t="s">
-        <v>9</v>
-      </c>
-      <c r="D275" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E275" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>320</v>
+        <v>192</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B276" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="C276" t="s">
-        <v>9</v>
-      </c>
-      <c r="D276" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E276" t="s">
         <v>11</v>
       </c>
+      <c r="F276" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G276" s="2" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B277" t="s">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="C277" t="s">
         <v>26</v>
@@ -6697,106 +6703,200 @@
       <c r="E277" t="s">
         <v>11</v>
       </c>
+      <c r="F277" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="G277" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7">
-      <c r="A278">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B279" s="3"/>
+      <c r="C279" s="3"/>
+      <c r="D279" s="3"/>
+      <c r="E279" s="3"/>
+      <c r="F279" s="4"/>
+      <c r="G279" s="5"/>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D280" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B278" t="s">
-        <v>321</v>
-      </c>
-      <c r="C278" t="s">
-        <v>22</v>
-      </c>
-      <c r="E278" t="s">
-        <v>11</v>
-      </c>
-      <c r="G278" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7">
-      <c r="A279">
+      <c r="E280" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B279" t="s">
-        <v>21</v>
-      </c>
-      <c r="C279" t="s">
-        <v>22</v>
-      </c>
-      <c r="E279" t="s">
-        <v>11</v>
-      </c>
-      <c r="F279" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G279" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7">
-      <c r="A280">
+      <c r="F280" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B280" t="s">
-        <v>241</v>
-      </c>
-      <c r="C280" t="s">
-        <v>26</v>
-      </c>
-      <c r="E280" t="s">
-        <v>11</v>
-      </c>
-      <c r="F280" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G280" s="2" t="s">
-        <v>322</v>
+      <c r="G280" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B281" t="s">
-        <v>323</v>
+        <v>8</v>
       </c>
       <c r="C281" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="D281" t="s">
+        <v>10</v>
       </c>
       <c r="E281" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="282" spans="1:7">
       <c r="A282">
+        <v>2</v>
+      </c>
+      <c r="B282" t="s">
+        <v>97</v>
+      </c>
+      <c r="C282" t="s">
+        <v>9</v>
+      </c>
+      <c r="D282" t="s">
+        <v>98</v>
+      </c>
+      <c r="E282" t="s">
+        <v>11</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283">
+        <v>3</v>
+      </c>
+      <c r="B283" t="s">
+        <v>219</v>
+      </c>
+      <c r="C283" t="s">
+        <v>26</v>
+      </c>
+      <c r="E283" t="s">
+        <v>11</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284">
+        <v>4</v>
+      </c>
+      <c r="B284" t="s">
+        <v>323</v>
+      </c>
+      <c r="C284" t="s">
+        <v>22</v>
+      </c>
+      <c r="E284" t="s">
+        <v>11</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285">
+        <v>5</v>
+      </c>
+      <c r="B285" t="s">
+        <v>21</v>
+      </c>
+      <c r="C285" t="s">
+        <v>22</v>
+      </c>
+      <c r="E285" t="s">
+        <v>11</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286">
+        <v>6</v>
+      </c>
+      <c r="B286" t="s">
+        <v>244</v>
+      </c>
+      <c r="C286" t="s">
+        <v>26</v>
+      </c>
+      <c r="E286" t="s">
+        <v>11</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287">
+        <v>7</v>
+      </c>
+      <c r="B287" t="s">
+        <v>325</v>
+      </c>
+      <c r="C287" t="s">
+        <v>22</v>
+      </c>
+      <c r="E287" t="s">
+        <v>19</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288">
         <v>8</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B288" t="s">
         <v>25</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C288" t="s">
         <v>26</v>
       </c>
-      <c r="E282" t="s">
-        <v>11</v>
-      </c>
-      <c r="F282" s="1" t="s">
+      <c r="E288" t="s">
+        <v>11</v>
+      </c>
+      <c r="F288" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G282" s="2" t="s">
+      <c r="G288" s="2" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A34:G34"/>
@@ -6808,21 +6908,22 @@
     <mergeCell ref="A89:G89"/>
     <mergeCell ref="A104:G104"/>
     <mergeCell ref="A114:G114"/>
-    <mergeCell ref="A130:G130"/>
-    <mergeCell ref="A138:G138"/>
-    <mergeCell ref="A146:G146"/>
-    <mergeCell ref="A177:G177"/>
-    <mergeCell ref="A185:G185"/>
-    <mergeCell ref="A202:G202"/>
-    <mergeCell ref="A210:G210"/>
-    <mergeCell ref="A224:G224"/>
-    <mergeCell ref="A238:G238"/>
-    <mergeCell ref="A246:G246"/>
-    <mergeCell ref="A261:G261"/>
-    <mergeCell ref="A273:G273"/>
+    <mergeCell ref="A120:G120"/>
+    <mergeCell ref="A136:G136"/>
+    <mergeCell ref="A144:G144"/>
+    <mergeCell ref="A152:G152"/>
+    <mergeCell ref="A183:G183"/>
+    <mergeCell ref="A191:G191"/>
+    <mergeCell ref="A208:G208"/>
+    <mergeCell ref="A216:G216"/>
+    <mergeCell ref="A230:G230"/>
+    <mergeCell ref="A244:G244"/>
+    <mergeCell ref="A252:G252"/>
+    <mergeCell ref="A267:G267"/>
+    <mergeCell ref="A279:G279"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E7 E8 E14 E21 E22 E23 E24 E25 E31 E32 E39 E40 E41 E44 E45 E46 E49 E50 E73 E74 E75 E76 E77 E78 E81 E82 E83 E84 E85 E86 E87 E88 E91 E92 E93 E94 E95 E96 E97 E98 E99 E100 E101 E102 E103 E106 E107 E108 E109 E110 E111 E112 E116 E117 E118 E119 E120 E121 E122 E123 E124 E125 E126 E127 E128 E132 E133 E134 E135 E136 E137 E140 E141 E142 E143 E144 E148 E149 E150 E151 E152 E153 E154 E155 E156 E157 E158 E159 E160 E161 E162 E163 E164 E165 E166 E167 E168 E169 E170 E171 E172 E173 E174 E175 E176 E179 E180 E181 E182 E183 E187 E188 E189 E190 E191 E192 E193 E194 E195 E196 E197 E198 E199 E200 E201 E204 E205 E206 E207 E208 E209 E212 E213 E214 E215 E216 E217 E218 E219 E220 E221 E222 E226 E227 E228 E229 E230 E231 E232 E233 E234 E235 E236 E240 E241 E242 E243 E244 E248 E249 E250 E251 E252 E253 E254 E255 E256 E257 E258 E259 E263 E264 E265 E266 E267 E268 E269 E270 E271 E275 E276 E277 E278 E279 E280 E281 E282 E3:E5 E11:E13 E15:E20 E26:E30 E36:E38 E47:E48 E54:E56 E57:E58 E62:E64 E65:E66 E70:E72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E7 E8 E14 E21 E22 E23 E24 E25 E31 E32 E39 E40 E41 E44 E45 E46 E49 E50 E73 E74 E75 E76 E77 E78 E81 E82 E83 E84 E85 E86 E87 E88 E91 E92 E93 E94 E95 E96 E97 E98 E99 E100 E101 E102 E103 E106 E107 E108 E109 E110 E111 E112 E113 E116 E117 E118 E122 E123 E124 E125 E126 E127 E128 E129 E130 E131 E132 E133 E134 E138 E139 E140 E141 E142 E143 E146 E147 E148 E149 E150 E154 E155 E156 E157 E158 E159 E160 E161 E162 E163 E164 E165 E166 E167 E168 E169 E170 E171 E172 E173 E174 E175 E176 E177 E178 E179 E180 E181 E182 E185 E186 E187 E188 E189 E193 E194 E195 E196 E197 E198 E199 E200 E201 E202 E203 E204 E205 E206 E207 E210 E211 E212 E213 E214 E215 E218 E219 E220 E221 E222 E223 E224 E225 E226 E227 E228 E232 E233 E234 E235 E236 E237 E238 E239 E240 E241 E242 E246 E247 E248 E249 E250 E254 E255 E256 E257 E258 E259 E260 E261 E262 E263 E264 E265 E269 E270 E271 E272 E273 E274 E275 E276 E277 E281 E282 E283 E284 E285 E286 E287 E288 E3:E5 E11:E13 E15:E20 E26:E30 E36:E38 E47:E48 E54:E56 E57:E58 E62:E64 E65:E66 E70:E72">
       <formula1>"否,是"</formula1>
     </dataValidation>
   </dataValidations>
